--- a/src/attributions/attributions_saliency_traj_292.xlsx
+++ b/src/attributions/attributions_saliency_traj_292.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0001249499327968806</v>
+        <v>4.876024377153954e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>4.857782550971024e-05</v>
+        <v>7.612680747115519e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>3.073406696785241e-05</v>
+        <v>5.029974090575706e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>6.262345414143056e-05</v>
+        <v>1.398855420120526e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001723327150102705</v>
+        <v>2.510029389668489e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000172978310729377</v>
+        <v>1.709597881927039e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001428878167644143</v>
+        <v>3.78802928935329e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>1.339580740022939e-05</v>
+        <v>3.207185272913193e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>1.780857928679325e-05</v>
+        <v>3.549064331309637e-07</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001479523052694276</v>
+        <v>6.564713203260908e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>3.041111267521046e-05</v>
+        <v>7.85942938819062e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>5.034333298681304e-05</v>
+        <v>4.782472387887537e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>2.363194289500825e-05</v>
+        <v>1.422936020389898e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.000130940941744484</v>
+        <v>1.231947408086853e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001156387224909849</v>
+        <v>7.640743206138723e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>7.03282275935635e-05</v>
+        <v>2.011074684560299e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.845745807979256e-06</v>
+        <v>4.549121058516903e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>5.131443322170526e-05</v>
+        <v>2.617893187562004e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>4.947162960888818e-05</v>
+        <v>2.015248355746735e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>2.095015224767849e-05</v>
+        <v>2.958063760161167e-06</v>
       </c>
       <c r="U2" t="n">
-        <v>2.439692980260588e-05</v>
+        <v>7.175026439654175e-07</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0001758115249685943</v>
+        <v>6.795795570724295e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>9.356078953715041e-05</v>
+        <v>2.686017978703603e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>2.713863614189904e-05</v>
+        <v>3.943326191802043e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.014534740941599e-05</v>
+        <v>1.51332596942666e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.129724038648419e-05</v>
+        <v>2.475219162079156e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.004188955761492e-05</v>
+        <v>5.574725605583808e-07</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.03515992325265e-06</v>
+        <v>2.955040599772474e-06</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.579667696205433e-05</v>
+        <v>2.188038706663065e-06</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.597629569820128e-05</v>
+        <v>1.242224016095861e-06</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.344087650068104e-07</v>
+        <v>3.229727553843986e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.10592944920063e-05</v>
+        <v>6.888268217153382e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.627558938518632e-06</v>
+        <v>2.094850515277358e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.118500848766416e-05</v>
+        <v>5.927403208261239e-07</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.158998075989075e-07</v>
+        <v>1.876866690508905e-06</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.394180779054295e-06</v>
+        <v>1.586872940606554e-06</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.781098035280593e-05</v>
+        <v>2.75032471108716e-06</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.694638922344893e-05</v>
+        <v>6.645737812505104e-06</v>
       </c>
       <c r="AM2" t="n">
-        <v>7.37375085009262e-05</v>
+        <v>3.563091297564824e-07</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.696689524687827e-06</v>
+        <v>1.585303380124969e-06</v>
       </c>
       <c r="AO2" t="n">
-        <v>3.864216978399782e-06</v>
+        <v>5.747832787506013e-08</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.805310057534371e-05</v>
+        <v>7.243022537295474e-07</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.18386810249649e-07</v>
+        <v>6.557513074767485e-07</v>
       </c>
       <c r="AR2" t="n">
-        <v>6.379302703862777e-06</v>
+        <v>5.749456022385857e-07</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.937275894510094e-05</v>
+        <v>2.249842282253667e-06</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.926279168808833e-05</v>
+        <v>2.452629360050196e-06</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.282406603626441e-05</v>
+        <v>3.093626446570852e-06</v>
       </c>
       <c r="AV2" t="n">
-        <v>4.24375175498426e-05</v>
+        <v>2.094558112730738e-06</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.897321999422275e-05</v>
+        <v>6.935060810064897e-06</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.502108251675963e-05</v>
+        <v>1.982033381864312e-06</v>
       </c>
       <c r="AY2" t="n">
-        <v>5.101253191241995e-05</v>
+        <v>2.555319497332675e-06</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3.432187077123672e-05</v>
+        <v>3.721901293829433e-07</v>
       </c>
       <c r="BA2" t="n">
-        <v>2.031246549449861e-05</v>
+        <v>2.554617140049231e-07</v>
       </c>
       <c r="BB2" t="n">
-        <v>4.949949288857169e-05</v>
+        <v>3.514457603159826e-06</v>
       </c>
       <c r="BC2" t="n">
-        <v>6.959856546018273e-05</v>
+        <v>2.248307140462202e-07</v>
       </c>
       <c r="BD2" t="n">
-        <v>2.57776518992614e-05</v>
+        <v>1.272958797926549e-06</v>
       </c>
       <c r="BE2" t="n">
-        <v>2.12819068110548e-05</v>
+        <v>2.56310386248515e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.986975181964226e-05</v>
+        <v>5.894322384847328e-06</v>
       </c>
       <c r="BG2" t="n">
-        <v>9.173061698675156e-05</v>
+        <v>3.184005890943808e-06</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0001160278916358948</v>
+        <v>2.484948026904021e-06</v>
       </c>
       <c r="BI2" t="n">
-        <v>3.919845767086372e-06</v>
+        <v>1.389321028000268e-06</v>
       </c>
       <c r="BJ2" t="n">
-        <v>8.133901428664103e-05</v>
+        <v>9.59970748226624e-07</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.357824658043683e-06</v>
+        <v>1.231439000548562e-06</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.260933186131297e-05</v>
+        <v>7.839575118850917e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>3.847048719762824e-05</v>
+        <v>6.594980277441209e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>5.642945779982256e-06</v>
+        <v>8.682453085384623e-07</v>
       </c>
       <c r="BO2" t="n">
-        <v>4.650335540645756e-06</v>
+        <v>5.195857966100448e-07</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.865049125626683e-05</v>
+        <v>1.412794290445163e-06</v>
       </c>
       <c r="BQ2" t="n">
-        <v>7.608117448398843e-05</v>
+        <v>4.661937396122084e-07</v>
       </c>
       <c r="BR2" t="n">
-        <v>6.664734974037856e-05</v>
+        <v>1.411497123626759e-07</v>
       </c>
       <c r="BS2" t="n">
-        <v>4.892210563411936e-05</v>
+        <v>1.958756456588162e-06</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.738167838993832e-06</v>
+        <v>2.10694167890324e-07</v>
       </c>
       <c r="BU2" t="n">
-        <v>8.092884672805667e-05</v>
+        <v>3.876455593854189e-06</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.98270681721624e-05</v>
+        <v>2.474932216500747e-06</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.000292104436085e-05</v>
+        <v>1.601747953827726e-06</v>
       </c>
       <c r="BX2" t="n">
-        <v>8.458088268525898e-05</v>
+        <v>1.769152277120156e-06</v>
       </c>
       <c r="BY2" t="n">
-        <v>7.106756675057113e-05</v>
+        <v>4.455341240827693e-06</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0001097238055081107</v>
+        <v>1.097050244425191e-06</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.859585038095247e-05</v>
+        <v>6.83416885749466e-07</v>
       </c>
       <c r="CB2" t="n">
-        <v>3.706080860865768e-06</v>
+        <v>1.270983375434298e-06</v>
       </c>
       <c r="CC2" t="n">
-        <v>8.544084266759455e-06</v>
+        <v>9.152822144642414e-07</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.810567118809558e-05</v>
+        <v>3.638053613030934e-06</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.025605251925299e-05</v>
+        <v>1.029599388857605e-06</v>
       </c>
       <c r="CF2" t="n">
-        <v>2.830728135450045e-06</v>
+        <v>9.285557780458475e-07</v>
       </c>
       <c r="CG2" t="n">
-        <v>3.838548582280055e-05</v>
+        <v>4.264139533916023e-06</v>
       </c>
       <c r="CH2" t="n">
-        <v>2.479991781001445e-05</v>
+        <v>7.898967737673956e-07</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.558766052767169e-05</v>
+        <v>1.181887228085543e-06</v>
       </c>
       <c r="CJ2" t="n">
-        <v>4.722768062492833e-05</v>
+        <v>7.50235017221712e-07</v>
       </c>
       <c r="CK2" t="n">
-        <v>3.44997133652214e-05</v>
+        <v>1.111626602323668e-06</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.796008291421458e-06</v>
+        <v>4.968786697645555e-07</v>
       </c>
       <c r="CM2" t="n">
-        <v>3.446379560045898e-05</v>
+        <v>1.630130697094501e-07</v>
       </c>
       <c r="CN2" t="n">
-        <v>3.381328860996291e-05</v>
+        <v>1.270626967198041e-06</v>
       </c>
       <c r="CO2" t="n">
-        <v>2.331200448679738e-05</v>
+        <v>9.118580805989041e-07</v>
       </c>
       <c r="CP2" t="n">
-        <v>9.019421122502536e-05</v>
+        <v>4.866853942075977e-06</v>
       </c>
       <c r="CQ2" t="n">
-        <v>5.548346962314099e-05</v>
+        <v>3.240192427256261e-06</v>
       </c>
       <c r="CR2" t="n">
-        <v>1.885349774966016e-05</v>
+        <v>8.203497827707906e-07</v>
       </c>
       <c r="CS2" t="n">
-        <v>3.74868068320211e-05</v>
+        <v>3.539280442055315e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>3.947449295083061e-05</v>
+        <v>4.201884166832315e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.787326467223465e-05</v>
+        <v>2.74444619208225e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.20919448818313e-05</v>
+        <v>4.234826974425232e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.038281516230199e-05</v>
+        <v>1.176473006125889e-06</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.082990365830483e-05</v>
+        <v>4.698762268162682e-08</v>
       </c>
       <c r="CY2" t="n">
-        <v>4.490963328862563e-05</v>
+        <v>3.068289061047835e-06</v>
       </c>
       <c r="CZ2" t="n">
-        <v>3.502728213788942e-05</v>
+        <v>4.904193247057265e-07</v>
       </c>
       <c r="DA2" t="n">
-        <v>3.0071996661718e-05</v>
+        <v>1.458338147131144e-06</v>
       </c>
       <c r="DB2" t="n">
-        <v>3.0087488994468e-05</v>
+        <v>4.916702209811774e-07</v>
       </c>
       <c r="DC2" t="n">
-        <v>3.056279092561454e-05</v>
+        <v>1.196406628878321e-06</v>
       </c>
       <c r="DD2" t="n">
-        <v>3.498625301290303e-05</v>
+        <v>6.37119114799134e-07</v>
       </c>
       <c r="DE2" t="n">
-        <v>4.667117173084989e-05</v>
+        <v>5.339985591490404e-07</v>
       </c>
       <c r="DF2" t="n">
-        <v>1.77055480889976e-05</v>
+        <v>8.339462510775775e-06</v>
       </c>
       <c r="DG2" t="n">
-        <v>5.101650458527729e-06</v>
+        <v>3.216570348740788e-06</v>
       </c>
       <c r="DH2" t="n">
-        <v>2.629363552841824e-05</v>
+        <v>1.812364644138142e-06</v>
       </c>
       <c r="DI2" t="n">
-        <v>3.285242564743385e-05</v>
+        <v>6.196954018378165e-06</v>
       </c>
       <c r="DJ2" t="n">
-        <v>6.220096111064777e-06</v>
+        <v>4.51554933533771e-06</v>
       </c>
       <c r="DK2" t="n">
-        <v>8.588555647293106e-05</v>
+        <v>5.905075340706389e-06</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.89230249816319e-05</v>
+        <v>1.378434291154917e-07</v>
       </c>
       <c r="DM2" t="n">
-        <v>3.428232594160363e-05</v>
+        <v>2.729231027842616e-06</v>
       </c>
       <c r="DN2" t="n">
-        <v>3.249005385441706e-05</v>
+        <v>3.349008238728857e-06</v>
       </c>
       <c r="DO2" t="n">
-        <v>4.2346948703198e-07</v>
+        <v>1.343992380498094e-06</v>
       </c>
       <c r="DP2" t="n">
-        <v>3.670580190373585e-05</v>
+        <v>4.054284545418341e-06</v>
       </c>
       <c r="DQ2" t="n">
-        <v>4.940925282426178e-05</v>
+        <v>5.905687430640683e-06</v>
       </c>
       <c r="DR2" t="n">
-        <v>9.729923476697877e-06</v>
+        <v>5.848078217240982e-07</v>
       </c>
       <c r="DS2" t="n">
-        <v>1.086588872567518e-05</v>
+        <v>3.20708863910113e-07</v>
       </c>
       <c r="DT2" t="n">
-        <v>2.077463977911975e-05</v>
+        <v>1.760771084491353e-07</v>
       </c>
       <c r="DU2" t="n">
-        <v>5.175317346584052e-05</v>
+        <v>8.284941941383295e-07</v>
       </c>
       <c r="DV2" t="n">
-        <v>2.772260995698161e-05</v>
+        <v>1.493636318627978e-06</v>
       </c>
       <c r="DW2" t="n">
-        <v>4.642435669666156e-05</v>
+        <v>2.555595074227313e-06</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.274260648642667e-05</v>
+        <v>2.794868578348542e-06</v>
       </c>
       <c r="DY2" t="n">
-        <v>4.420211189426482e-05</v>
+        <v>2.57408743209453e-08</v>
       </c>
       <c r="DZ2" t="n">
-        <v>5.220033199293539e-05</v>
+        <v>1.720530690363375e-06</v>
       </c>
       <c r="EA2" t="n">
-        <v>4.32588676630985e-05</v>
+        <v>1.523175797046861e-06</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.338621405011509e-05</v>
+        <v>3.409291139178094e-06</v>
       </c>
       <c r="EC2" t="n">
-        <v>5.067217716714367e-05</v>
+        <v>2.67183713731356e-06</v>
       </c>
       <c r="ED2" t="n">
-        <v>8.204349796869792e-06</v>
+        <v>3.774322749450221e-06</v>
       </c>
       <c r="EE2" t="n">
-        <v>2.18501972995e-05</v>
+        <v>1.995332922888338e-06</v>
       </c>
       <c r="EF2" t="n">
-        <v>5.009222513763234e-05</v>
+        <v>1.375412921333918e-06</v>
       </c>
       <c r="EG2" t="n">
-        <v>3.475389348750468e-06</v>
+        <v>9.468700454817736e-07</v>
       </c>
       <c r="EH2" t="n">
-        <v>2.946048425656045e-06</v>
+        <v>1.393651984926692e-07</v>
       </c>
       <c r="EI2" t="n">
-        <v>3.749416282516904e-05</v>
+        <v>7.34098102839198e-06</v>
       </c>
       <c r="EJ2" t="n">
-        <v>2.828899960150011e-05</v>
+        <v>1.211513790622121e-06</v>
       </c>
       <c r="EK2" t="n">
-        <v>2.578549174359068e-05</v>
+        <v>1.248173020940158e-06</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.366225842502899e-05</v>
+        <v>9.623799996916205e-07</v>
       </c>
       <c r="EM2" t="n">
-        <v>9.848186891758814e-06</v>
+        <v>3.768823262362275e-06</v>
       </c>
       <c r="EN2" t="n">
-        <v>3.08035196212586e-05</v>
+        <v>1.116629960051796e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>2.794928150251508e-05</v>
+        <v>5.603053978120442e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>3.851563815260306e-05</v>
+        <v>6.700967674078129e-07</v>
       </c>
       <c r="EQ2" t="n">
-        <v>2.031758594966959e-05</v>
+        <v>3.790606569964439e-06</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.902652729768306e-05</v>
+        <v>2.436007207506918e-06</v>
       </c>
       <c r="ES2" t="n">
-        <v>2.692672023840714e-05</v>
+        <v>5.259665840640082e-07</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.652005448704585e-05</v>
+        <v>4.675257969211088e-06</v>
       </c>
       <c r="EU2" t="n">
-        <v>4.405185245559551e-05</v>
+        <v>9.841191968007479e-07</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.541693927720189e-05</v>
+        <v>1.385567657052889e-06</v>
       </c>
       <c r="EW2" t="n">
-        <v>7.668539910810068e-05</v>
+        <v>3.505884023979888e-06</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.575067290104926e-05</v>
+        <v>4.751584583573276e-06</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.633212195883971e-05</v>
+        <v>1.499048266850878e-06</v>
       </c>
       <c r="EZ2" t="n">
-        <v>8.837685527396388e-06</v>
+        <v>2.568915533629479e-07</v>
       </c>
       <c r="FA2" t="n">
-        <v>3.248669963795692e-05</v>
+        <v>4.212345629639458e-06</v>
       </c>
       <c r="FB2" t="n">
-        <v>4.207355959806591e-05</v>
+        <v>7.267111072906118e-07</v>
       </c>
       <c r="FC2" t="n">
-        <v>2.837702049873769e-05</v>
+        <v>5.396765345722088e-07</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.919030910357833e-05</v>
+        <v>1.540750815820502e-07</v>
       </c>
       <c r="FE2" t="n">
-        <v>3.483929322101176e-05</v>
+        <v>3.527377714362956e-07</v>
       </c>
       <c r="FF2" t="n">
-        <v>3.799042815444409e-06</v>
+        <v>1.277221144846408e-06</v>
       </c>
       <c r="FG2" t="n">
-        <v>3.886307604261674e-05</v>
+        <v>7.280277714016847e-09</v>
       </c>
       <c r="FH2" t="n">
-        <v>3.235029726056382e-05</v>
+        <v>4.850699042435735e-06</v>
       </c>
       <c r="FI2" t="n">
-        <v>6.809802925999975e-06</v>
+        <v>7.270215860444296e-07</v>
       </c>
       <c r="FJ2" t="n">
-        <v>8.765962411416695e-05</v>
+        <v>3.010724867635872e-06</v>
       </c>
       <c r="FK2" t="n">
-        <v>3.305196150904521e-05</v>
+        <v>2.511285401851637e-06</v>
       </c>
       <c r="FL2" t="n">
-        <v>5.538096593227237e-05</v>
+        <v>2.29709655741317e-07</v>
       </c>
       <c r="FM2" t="n">
-        <v>3.475690391496755e-06</v>
+        <v>1.494756702413724e-06</v>
       </c>
       <c r="FN2" t="n">
-        <v>2.123730155290104e-05</v>
+        <v>2.793008889057091e-06</v>
       </c>
       <c r="FO2" t="n">
-        <v>9.140102338278666e-05</v>
+        <v>6.58881731396832e-07</v>
       </c>
       <c r="FP2" t="n">
-        <v>1.141395205195295e-05</v>
+        <v>8.99906808626838e-06</v>
       </c>
       <c r="FQ2" t="n">
-        <v>3.896019552485086e-05</v>
+        <v>4.159561740380013e-06</v>
       </c>
       <c r="FR2" t="n">
-        <v>4.214854925521649e-05</v>
+        <v>3.301540800748626e-06</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0001295395195484161</v>
+        <v>5.876077011635061e-07</v>
       </c>
       <c r="FT2" t="n">
-        <v>6.539038440678269e-05</v>
+        <v>2.983958324875857e-07</v>
       </c>
       <c r="FU2" t="n">
-        <v>3.726455361174885e-06</v>
+        <v>3.410863428143784e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>8.340335625689477e-05</v>
+        <v>8.582917871535756e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.799705053912476e-05</v>
+        <v>7.001528501859866e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>5.874154157936573e-05</v>
+        <v>6.697977141811862e-07</v>
       </c>
       <c r="FY2" t="n">
-        <v>3.215193282812834e-05</v>
+        <v>8.037757652346045e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.69180020748172e-06</v>
+        <v>8.640126338832488e-07</v>
       </c>
       <c r="GA2" t="n">
-        <v>6.318532541627064e-06</v>
+        <v>6.371773906721501e-06</v>
       </c>
       <c r="GB2" t="n">
-        <v>4.885457019554451e-05</v>
+        <v>3.047828386115725e-06</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.068158053385559e-05</v>
+        <v>3.505642780510243e-06</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0001408671523677185</v>
+        <v>4.368453119241167e-06</v>
       </c>
       <c r="GE2" t="n">
-        <v>5.392666935222223e-05</v>
+        <v>4.358465503173647e-06</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0001111959427362308</v>
+        <v>5.396483629738213e-06</v>
       </c>
       <c r="GG2" t="n">
-        <v>2.327666334167589e-05</v>
+        <v>3.629275170169421e-06</v>
       </c>
     </row>
     <row r="3">
